--- a/7. Statistic Analysis/Results/Java/Projects/Wilcoxon - math.xlsx
+++ b/7. Statistic Analysis/Results/Java/Projects/Wilcoxon - math.xlsx
@@ -14,7 +14,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve"><![CDATA[Valid]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[T]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[Z]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[p-value]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize & VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume & ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & TimeToImplement]]></t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,211 +398,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.596372" customWidth="1"/>
-    <col min="2" max="2" width="9.593605" customWidth="1"/>
+    <col min="1" max="1" width="54.552101" customWidth="1"/>
+    <col min="2" max="2" width="6.596372" customWidth="1"/>
     <col min="3" max="3" width="9.593605" customWidth="1"/>
     <col min="4" max="4" width="9.593605" customWidth="1"/>
+    <col min="5" max="5" width="9.593605" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>102</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="C2" t="n" s="0">
         <v>2553.500000</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>0.243687</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>0.807473</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>120</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="C3" t="n" s="0">
         <v>3334.000000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>0.775185</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>0.438231</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>87</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="C4" t="n" s="0">
         <v>1544.500000</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D4" t="n" s="0">
         <v>1.563868</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>0.117850</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>195</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="C5" t="n" s="0">
         <v>8249.000000</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>1.655065</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>0.097912</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="0">
         <v>133</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="C6" t="n" s="0">
         <v>4144.500000</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>0.698445</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>0.484900</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
         <v>195</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="C7" t="n" s="0">
         <v>8518.000000</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>1.314167</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E7" t="n" s="0">
         <v>0.188791</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>139</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="C8" t="n" s="0">
         <v>4334.000000</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="D8" t="n" s="0">
         <v>1.116417</v>
       </c>
-      <c r="D7" t="n" s="0">
+      <c r="E8" t="n" s="0">
         <v>0.264244</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>142</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="C9" t="n" s="0">
         <v>4413.500000</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>1.350158</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>0.176966</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="0">
         <v>17</v>
       </c>
-      <c r="B9" t="n" s="0">
+      <c r="C10" t="n" s="0">
         <v>65.000000</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>0.544388</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>0.586175</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="0">
         <v>16</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="C11" t="n" s="0">
         <v>55.000000</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="D11" t="n" s="0">
         <v>0.672214</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E11" t="n" s="0">
         <v>0.501448</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="0">
         <v>195</v>
       </c>
-      <c r="B11" t="n" s="0">
+      <c r="C12" t="n" s="0">
         <v>8126.000000</v>
       </c>
-      <c r="C11" t="n" s="0">
+      <c r="D12" t="n" s="0">
         <v>1.810940</v>
       </c>
-      <c r="D11" t="n" s="0">
+      <c r="E12" t="n" s="0">
         <v>0.070151</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="0">
         <v>195</v>
       </c>
-      <c r="B12" t="n" s="0">
+      <c r="C13" t="n" s="0">
         <v>8319.000000</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="D13" t="n" s="0">
         <v>1.566356</v>
       </c>
-      <c r="D12" t="n" s="0">
+      <c r="E13" t="n" s="0">
         <v>0.117266</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n" s="0">
         <v>19</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="C14" t="n" s="0">
         <v>69.000000</v>
       </c>
-      <c r="C13" t="n" s="0">
+      <c r="D14" t="n" s="0">
         <v>1.046297</v>
       </c>
-      <c r="D13" t="n" s="0">
+      <c r="E14" t="n" s="0">
         <v>0.295425</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="0">
         <v>19</v>
       </c>
-      <c r="B14" t="n" s="0">
+      <c r="C15" t="n" s="0">
         <v>69.000000</v>
       </c>
-      <c r="C14" t="n" s="0">
+      <c r="D15" t="n" s="0">
         <v>1.046297</v>
       </c>
-      <c r="D14" t="n" s="0">
+      <c r="E15" t="n" s="0">
         <v>0.295425</v>
       </c>
     </row>
